--- a/biology/Botanique/Digitaria/Digitaria.xlsx
+++ b/biology/Botanique/Digitaria/Digitaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Digitaria (les digitaires) est un genre de plantes herbacées de la famille des Poaceae, qui regroupe environ 300 espèces des régions tropicales et tempérées.
-Certaines espèces sont considérées comme des mauvaises herbes, en particulier dans les pelouses, les terrains de golf et dans certaines cultures, notamment le maïs[2].
-Chez d'autres espèces, comme Digitaria cruciata (raishan), Digitaria exilis (fonio blanc), Digitaria iburua (fonio noir) ou Digitaria sanguinalis (digitaire sanguine), les graines sont utilisées pour l'alimentation humaine en Afrique, en Asie et en Europe ; ces espèces sont classées parmi les céréales mineures. Enfin, diverses espèces de Digitaria, notamment Digitaria decumbens Stent, sont cultivées comme plantes fourragères dans les régions tropicales[3].
+Certaines espèces sont considérées comme des mauvaises herbes, en particulier dans les pelouses, les terrains de golf et dans certaines cultures, notamment le maïs.
+Chez d'autres espèces, comme Digitaria cruciata (raishan), Digitaria exilis (fonio blanc), Digitaria iburua (fonio noir) ou Digitaria sanguinalis (digitaire sanguine), les graines sont utilisées pour l'alimentation humaine en Afrique, en Asie et en Europe ; ces espèces sont classées parmi les céréales mineures. Enfin, diverses espèces de Digitaria, notamment Digitaria decumbens Stent, sont cultivées comme plantes fourragères dans les régions tropicales.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (29 septembre 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 septembre 2017) :
 Digitaria abludens (Roem. &amp; Schult.) Veldkamp
 Digitaria abyssinica (A.Rich.) Stapf
 Digitaria acuminatissima Stapf
@@ -777,7 +791,7 @@
 Digitaria violascens Link
 Digitaria wallichiana (Steud.) Stapf
 Digitaria xanthotricha (Hack.) Stapf
-Histoire</t>
+</t>
         </is>
       </c>
     </row>
